--- a/baidu_history_xlsx/baidu_莱州.xlsx
+++ b/baidu_history_xlsx/baidu_莱州.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+  <si>
+    <t>紫雪510</t>
+  </si>
   <si>
     <t>微信红包头条</t>
   </si>
@@ -675,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -721,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -754,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -765,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -809,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -820,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -831,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -897,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -930,7 +933,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -996,7 +999,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1010,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1139,7 +1142,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1150,7 +1153,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1249,7 +1252,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1263,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1304,7 +1307,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1318,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1359,7 +1362,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1373,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1458,7 +1461,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1469,7 +1472,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1480,7 +1483,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1524,7 +1527,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1535,7 +1538,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1590,7 +1593,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1601,7 +1604,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1612,7 +1615,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1678,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1689,7 +1692,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1788,7 +1791,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1799,7 +1802,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1832,6 +1835,17 @@
         <v>103</v>
       </c>
       <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
         <v>2</v>
       </c>
     </row>
